--- a/data/IKPA_OKTOBER_2025.xlsx
+++ b/data/IKPA_OKTOBER_2025.xlsx
@@ -566,17 +566,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>403409</t>
+          <t>440507</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA MARTAPURA</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -598,10 +598,10 @@
         <v>100</v>
       </c>
       <c r="L2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>100</v>
@@ -610,11 +610,11 @@
         <v>100</v>
       </c>
       <c r="P2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -633,17 +633,17 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>PA MARTAPURA</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>PA MARTAPURA</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>PA MARTAPURA (403409)</t>
+          <t>KEMENAG OKUS (440507)</t>
         </is>
       </c>
     </row>
@@ -658,17 +658,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>440507</t>
+          <t>403409</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -690,10 +690,10 @@
         <v>100</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>100</v>
@@ -702,11 +702,11 @@
         <v>100</v>
       </c>
       <c r="P3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -725,17 +725,17 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>PA MARTAPURA</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>PA MARTAPURA</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440507)</t>
+          <t>PA MARTAPURA (403409)</t>
         </is>
       </c>
     </row>
@@ -1302,24 +1302,24 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>060</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>410574</t>
+          <t>665307</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>KANTOR PELAYANAN PAJAK PRATAMA BATURAJA</t>
+          <t>POLRES OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>99.63</v>
+        <v>99.66</v>
       </c>
       <c r="H10" t="n">
         <v>100</v>
@@ -1331,7 +1331,7 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>98.53</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="L10" t="n">
         <v>100</v>
@@ -1346,7 +1346,7 @@
         <v>100</v>
       </c>
       <c r="P10" t="n">
-        <v>99.70999999999999</v>
+        <v>99.73</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>99.70999999999999</v>
+        <v>99.73</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1369,17 +1369,17 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>KPP BATURAJA</t>
+          <t>POLRES OKUS</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>KPP BATURAJA</t>
+          <t>POLRES OKUS</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>KPP BATURAJA (410574)</t>
+          <t>POLRES OKUS (665307)</t>
         </is>
       </c>
     </row>
@@ -1394,24 +1394,24 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>015</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>668529</t>
+          <t>410574</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR PELAYANAN PAJAK PRATAMA BATURAJA</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>99.48999999999999</v>
+        <v>99.63</v>
       </c>
       <c r="H11" t="n">
         <v>100</v>
@@ -1423,7 +1423,7 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>97.95</v>
+        <v>98.53</v>
       </c>
       <c r="L11" t="n">
         <v>100</v>
@@ -1438,7 +1438,7 @@
         <v>100</v>
       </c>
       <c r="P11" t="n">
-        <v>99.59</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>99.59</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1461,17 +1461,17 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>BPS OKUT</t>
+          <t>KPP BATURAJA</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>BPS OKUT</t>
+          <t>KPP BATURAJA</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>BPS OKUT (668529)</t>
+          <t>KPP BATURAJA (410574)</t>
         </is>
       </c>
     </row>
@@ -1486,24 +1486,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>054</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>527975</t>
+          <t>668529</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
+          <t>BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>98.95999999999999</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>100</v>
@@ -1515,13 +1515,13 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>97.91</v>
+        <v>97.95</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
         <v>100</v>
@@ -1530,18 +1530,18 @@
         <v>100</v>
       </c>
       <c r="P12" t="n">
-        <v>79.58</v>
+        <v>99.59</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>99.48</v>
+        <v>99.59</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1553,17 +1553,17 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>KPPN BATURAJA</t>
+          <t>BPS OKUT</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>KPPN BATURAJA</t>
+          <t>BPS OKUT</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>KPPN BATURAJA (527975)</t>
+          <t>BPS OKUT (668529)</t>
         </is>
       </c>
     </row>
@@ -1578,24 +1578,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>060</t>
+          <t>015</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>665307</t>
+          <t>527975</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>POLRES OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>99.27</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>100</v>
@@ -1607,13 +1607,13 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>97.06</v>
+        <v>97.91</v>
       </c>
       <c r="L13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>100</v>
@@ -1622,18 +1622,18 @@
         <v>100</v>
       </c>
       <c r="P13" t="n">
-        <v>99.41</v>
+        <v>79.58</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>99.41</v>
+        <v>99.48</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1645,17 +1645,17 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>POLRES OKUS</t>
+          <t>KPPN BATURAJA</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>POLRES OKUS</t>
+          <t>KPPN BATURAJA</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>POLRES OKUS (665307)</t>
+          <t>KPPN BATURAJA (527975)</t>
         </is>
       </c>
     </row>
@@ -2130,24 +2130,24 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>403410</t>
+          <t>440503</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA MUARADUA</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>96.06</v>
+        <v>96.47</v>
       </c>
       <c r="G19" t="n">
-        <v>98.66</v>
+        <v>97.33</v>
       </c>
       <c r="H19" t="n">
         <v>100</v>
@@ -2156,36 +2156,36 @@
         <v>100</v>
       </c>
       <c r="J19" t="n">
-        <v>92.12</v>
+        <v>92.94</v>
       </c>
       <c r="K19" t="n">
-        <v>98.15000000000001</v>
+        <v>94.66</v>
       </c>
       <c r="L19" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>96.5</v>
+        <v>100</v>
       </c>
       <c r="O19" t="n">
         <v>100</v>
       </c>
       <c r="P19" t="n">
-        <v>98.09999999999999</v>
+        <v>77.87</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>98.09999999999999</v>
+        <v>97.34</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2197,17 +2197,17 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>PA  MUARADUA</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>PA  MUARADUA</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>PA  MUARADUA (403410)</t>
+          <t>KEMENAG OKUS (440503)</t>
         </is>
       </c>
     </row>
@@ -2222,55 +2222,55 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>012</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>440503</t>
+          <t>685001</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>PUSLATPUR KODIKLATAD</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>96.47</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>97.33</v>
+        <v>99.83</v>
       </c>
       <c r="H20" t="n">
-        <v>100</v>
+        <v>99.72</v>
       </c>
       <c r="I20" t="n">
         <v>100</v>
       </c>
       <c r="J20" t="n">
-        <v>92.94</v>
+        <v>83.63</v>
       </c>
       <c r="K20" t="n">
-        <v>94.66</v>
+        <v>99.31</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
         <v>100</v>
       </c>
       <c r="O20" t="n">
-        <v>100</v>
+        <v>99.72</v>
       </c>
       <c r="P20" t="n">
-        <v>77.87</v>
+        <v>97.34</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R20" t="n">
@@ -2289,17 +2289,17 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>PUSLATPUR AD</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>PUSLATPUR AD</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440503)</t>
+          <t>PUSLATPUR AD (685001)</t>
         </is>
       </c>
     </row>
@@ -2314,36 +2314,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>012</t>
+          <t>060</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>685001</t>
+          <t>665292</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PUSLATPUR KODIKLATAD</t>
+          <t>POLRES OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>91.81999999999999</v>
+        <v>90.69</v>
       </c>
       <c r="G21" t="n">
-        <v>99.83</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>99.72</v>
+        <v>100</v>
       </c>
       <c r="I21" t="n">
         <v>100</v>
       </c>
       <c r="J21" t="n">
-        <v>83.63</v>
+        <v>81.38</v>
       </c>
       <c r="K21" t="n">
-        <v>99.31</v>
+        <v>99.97</v>
       </c>
       <c r="L21" t="n">
         <v>100</v>
@@ -2355,10 +2355,10 @@
         <v>100</v>
       </c>
       <c r="O21" t="n">
-        <v>99.72</v>
+        <v>100</v>
       </c>
       <c r="P21" t="n">
-        <v>97.34</v>
+        <v>97.2</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>97.34</v>
+        <v>97.2</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2381,17 +2381,17 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>PUSLATPUR AD</t>
+          <t>POLRES OKUT</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>PUSLATPUR AD</t>
+          <t>POLRES OKUT</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>PUSLATPUR AD (685001)</t>
+          <t>POLRES OKUT (665292)</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
         <v>91.3</v>
       </c>
       <c r="G24" t="n">
-        <v>98.83</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>100</v>
@@ -2619,7 +2619,7 @@
         <v>82.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>99.31</v>
+        <v>99.59</v>
       </c>
       <c r="L24" t="n">
         <v>96</v>
@@ -2634,7 +2634,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="n">
-        <v>96.84999999999999</v>
+        <v>96.91</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>96.84999999999999</v>
+        <v>96.91</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2958,24 +2958,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>060</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>665292</t>
+          <t>418456</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>POLRES OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>90.69</v>
+        <v>93.2</v>
       </c>
       <c r="G28" t="n">
-        <v>99.2</v>
+        <v>98.2</v>
       </c>
       <c r="H28" t="n">
         <v>100</v>
@@ -2984,16 +2984,16 @@
         <v>100</v>
       </c>
       <c r="J28" t="n">
-        <v>81.38</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>96.81</v>
+        <v>96.39</v>
       </c>
       <c r="L28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>100</v>
@@ -3002,18 +3002,18 @@
         <v>100</v>
       </c>
       <c r="P28" t="n">
-        <v>96.56999999999999</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.56999999999999</v>
+        <v>96.55</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3025,17 +3025,17 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>POLRES OKUT</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>POLRES OKUT</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>POLRES OKUT (665292)</t>
+          <t>KEMENAG OKU (418456)</t>
         </is>
       </c>
     </row>
@@ -3050,24 +3050,24 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>007208</t>
+          <t>418462</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>89.13</v>
+        <v>91.44</v>
       </c>
       <c r="G29" t="n">
-        <v>99.77</v>
+        <v>99.37</v>
       </c>
       <c r="H29" t="n">
         <v>100</v>
@@ -3076,36 +3076,36 @@
         <v>100</v>
       </c>
       <c r="J29" t="n">
-        <v>78.26000000000001</v>
+        <v>82.88</v>
       </c>
       <c r="K29" t="n">
-        <v>99.06999999999999</v>
+        <v>99</v>
       </c>
       <c r="L29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>100</v>
+        <v>99.73</v>
       </c>
       <c r="O29" t="n">
         <v>100</v>
       </c>
       <c r="P29" t="n">
-        <v>96.55</v>
+        <v>77.20999999999999</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>96.55</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3117,17 +3117,17 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>KEJARI OKUS</t>
+          <t>MTSN 2 OKUS</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>KEJARI OKUS</t>
+          <t>MTSN 2 OKUS</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>KEJARI OKUS (007208)</t>
+          <t>MTSN 2 OKUS (418462)</t>
         </is>
       </c>
     </row>
@@ -3142,24 +3142,24 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>076</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>418456</t>
+          <t>656560</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>93.2</v>
+        <v>90.59</v>
       </c>
       <c r="G30" t="n">
-        <v>98.2</v>
+        <v>98.20999999999999</v>
       </c>
       <c r="H30" t="n">
         <v>100</v>
@@ -3168,16 +3168,16 @@
         <v>100</v>
       </c>
       <c r="J30" t="n">
-        <v>86.40000000000001</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>96.39</v>
+        <v>99.51000000000001</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>93.33</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
         <v>100</v>
@@ -3186,18 +3186,18 @@
         <v>100</v>
       </c>
       <c r="P30" t="n">
-        <v>77.23999999999999</v>
+        <v>96.41</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>96.55</v>
+        <v>96.41</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3209,17 +3209,17 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KPU OKUT</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KPU OKUT</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418456)</t>
+          <t>KPU OKUT (656560)</t>
         </is>
       </c>
     </row>
@@ -3234,24 +3234,24 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>056</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>418462</t>
+          <t>669055</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU TIMUR PROV. SUMATRA SELATAN</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>91.44</v>
+        <v>92.64</v>
       </c>
       <c r="G31" t="n">
-        <v>99.37</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>100</v>
@@ -3260,36 +3260,36 @@
         <v>100</v>
       </c>
       <c r="J31" t="n">
-        <v>82.88</v>
+        <v>85.27</v>
       </c>
       <c r="K31" t="n">
-        <v>99</v>
+        <v>94.92</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>99.73</v>
+        <v>96.22</v>
       </c>
       <c r="O31" t="n">
         <v>100</v>
       </c>
       <c r="P31" t="n">
-        <v>77.20999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.51000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUS</t>
+          <t>BPN OKUT</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUS</t>
+          <t>BPN OKUT</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUS (418462)</t>
+          <t>BPN OKUT (669055)</t>
         </is>
       </c>
     </row>
@@ -3326,24 +3326,24 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>656560</t>
+          <t>440504</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>90.59</v>
+        <v>89.97</v>
       </c>
       <c r="G32" t="n">
-        <v>98.20999999999999</v>
+        <v>99.28</v>
       </c>
       <c r="H32" t="n">
         <v>100</v>
@@ -3352,16 +3352,16 @@
         <v>100</v>
       </c>
       <c r="J32" t="n">
-        <v>81.18000000000001</v>
+        <v>79.94</v>
       </c>
       <c r="K32" t="n">
-        <v>99.51000000000001</v>
+        <v>98.56</v>
       </c>
       <c r="L32" t="n">
-        <v>93.33</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>100</v>
@@ -3370,18 +3370,18 @@
         <v>100</v>
       </c>
       <c r="P32" t="n">
-        <v>96.41</v>
+        <v>76.7</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.41</v>
+        <v>95.88</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3393,17 +3393,17 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>KPU OKUT</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>KPU OKUT</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>KPU OKUT (656560)</t>
+          <t>KEMENAG OKUS (440504)</t>
         </is>
       </c>
     </row>
@@ -3418,24 +3418,24 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>056</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>669055</t>
+          <t>111071</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU TIMUR PROV. SUMATRA SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>92.64</v>
+        <v>90.75</v>
       </c>
       <c r="G33" t="n">
-        <v>97.78</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="H33" t="n">
         <v>100</v>
@@ -3444,36 +3444,36 @@
         <v>100</v>
       </c>
       <c r="J33" t="n">
-        <v>85.27</v>
+        <v>81.5</v>
       </c>
       <c r="K33" t="n">
-        <v>94.90000000000001</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="L33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>96.22</v>
+        <v>100</v>
       </c>
       <c r="O33" t="n">
         <v>100</v>
       </c>
       <c r="P33" t="n">
-        <v>96.39</v>
+        <v>76.7</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>96.39</v>
+        <v>95.87</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3485,17 +3485,17 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>BPN OKUT</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>BPN OKUT</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>BPN OKUT (669055)</t>
+          <t>KEMENAG OKUT (111071)</t>
         </is>
       </c>
     </row>
@@ -3510,24 +3510,24 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>661192</t>
+          <t>098963</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU SELATAN</t>
+          <t>PENGADILAN NEGERI BATURAJA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>90.38</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>99.84</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="H34" t="n">
         <v>100</v>
@@ -3536,36 +3536,36 @@
         <v>100</v>
       </c>
       <c r="J34" t="n">
-        <v>80.75</v>
+        <v>74.36</v>
       </c>
       <c r="K34" t="n">
-        <v>99.81999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>99.84999999999999</v>
+        <v>100</v>
       </c>
       <c r="O34" t="n">
         <v>100</v>
       </c>
       <c r="P34" t="n">
-        <v>77.06</v>
+        <v>95.87</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.33</v>
+        <v>95.87</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3577,17 +3577,17 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>MTSN 4 OKUS (661192)</t>
+          <t>PN BATURAJA (098963)</t>
         </is>
       </c>
     </row>
@@ -3607,19 +3607,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>440504</t>
+          <t>418471</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>89.97</v>
+        <v>88.73999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>99.28</v>
+        <v>99.88</v>
       </c>
       <c r="H35" t="n">
         <v>100</v>
@@ -3628,10 +3628,10 @@
         <v>100</v>
       </c>
       <c r="J35" t="n">
-        <v>79.94</v>
+        <v>77.47</v>
       </c>
       <c r="K35" t="n">
-        <v>98.56</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>100</v>
       </c>
       <c r="P35" t="n">
-        <v>76.7</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>95.88</v>
+        <v>95.72</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3669,17 +3669,17 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>MTSN 2 OKUT</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>MTSN 2 OKUT</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440504)</t>
+          <t>MTSN 2 OKUT (418471)</t>
         </is>
       </c>
     </row>
@@ -3694,62 +3694,62 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>098963</t>
+          <t>661192</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PENGADILAN NEGERI BATURAJA</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 4 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>87.18000000000001</v>
+        <v>90.38</v>
       </c>
       <c r="G36" t="n">
-        <v>99.65000000000001</v>
+        <v>99.84</v>
       </c>
       <c r="H36" t="n">
-        <v>100</v>
+        <v>97.8</v>
       </c>
       <c r="I36" t="n">
         <v>100</v>
       </c>
       <c r="J36" t="n">
-        <v>74.36</v>
+        <v>80.75</v>
       </c>
       <c r="K36" t="n">
-        <v>98.59999999999999</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="L36" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>100</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="O36" t="n">
-        <v>100</v>
+        <v>97.8</v>
       </c>
       <c r="P36" t="n">
-        <v>95.87</v>
+        <v>76.51000000000001</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>95.87</v>
+        <v>95.64</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3761,17 +3761,17 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>MTSN 4 OKUS</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>MTSN 4 OKUS</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>PN BATURAJA (098963)</t>
+          <t>MTSN 4 OKUS (661192)</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>111071</t>
+          <t>666505</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3800,10 +3800,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>90.75</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>98.68000000000001</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
         <v>100</v>
@@ -3812,10 +3812,10 @@
         <v>100</v>
       </c>
       <c r="J37" t="n">
-        <v>81.5</v>
+        <v>75.36</v>
       </c>
       <c r="K37" t="n">
-        <v>97.34999999999999</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>100</v>
       </c>
       <c r="P37" t="n">
-        <v>76.7</v>
+        <v>76.3</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>95.87</v>
+        <v>95.38</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (111071)</t>
+          <t>KEMENAG OKUT (666505)</t>
         </is>
       </c>
     </row>
@@ -3883,19 +3883,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>662127</t>
+          <t>597558</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
+          <t>MADRASAH ALIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>89.76000000000001</v>
+        <v>88.97</v>
       </c>
       <c r="G38" t="n">
-        <v>99.37</v>
+        <v>98.08</v>
       </c>
       <c r="H38" t="n">
         <v>100</v>
@@ -3904,10 +3904,10 @@
         <v>100</v>
       </c>
       <c r="J38" t="n">
-        <v>79.52</v>
+        <v>77.93000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>98.73</v>
+        <v>100</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -3916,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>100</v>
+        <v>96.16</v>
       </c>
       <c r="O38" t="n">
         <v>100</v>
       </c>
       <c r="P38" t="n">
-        <v>76.67</v>
+        <v>76.31</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>95.84</v>
+        <v>95.38</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3945,17 +3945,17 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>MAN 1 OKUS</t>
+          <t>MAN 2 OKUS</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>MAN 1 OKUS</t>
+          <t>MAN 2 OKUS</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>MAN 1 OKUS (662127)</t>
+          <t>MAN 2 OKUS (597558)</t>
         </is>
       </c>
     </row>
@@ -3975,19 +3975,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>424245</t>
+          <t>666504</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>86.01000000000001</v>
+        <v>95.39</v>
       </c>
       <c r="G39" t="n">
-        <v>99.94</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H39" t="n">
         <v>100</v>
@@ -3996,36 +3996,36 @@
         <v>100</v>
       </c>
       <c r="J39" t="n">
-        <v>72.01000000000001</v>
+        <v>90.78</v>
       </c>
       <c r="K39" t="n">
-        <v>100</v>
+        <v>90.87</v>
       </c>
       <c r="L39" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>99.75</v>
+        <v>94.92</v>
       </c>
       <c r="O39" t="n">
         <v>100</v>
       </c>
       <c r="P39" t="n">
-        <v>95.78</v>
+        <v>76.28</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>95.78</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4037,17 +4037,17 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>MAN 1 OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>MAN 1 OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>MAN 1 OKU (424245)</t>
+          <t>KEMENAG OKUT (666504)</t>
         </is>
       </c>
     </row>
@@ -4067,19 +4067,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>418471</t>
+          <t>424967</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 2 OGAN KOMERING ULU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>88.73999999999999</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>99.88</v>
+        <v>97.84</v>
       </c>
       <c r="H40" t="n">
         <v>100</v>
@@ -4088,16 +4088,16 @@
         <v>100</v>
       </c>
       <c r="J40" t="n">
-        <v>77.47</v>
+        <v>80.52</v>
       </c>
       <c r="K40" t="n">
-        <v>99.76000000000001</v>
+        <v>91.37</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
         <v>100</v>
@@ -4106,18 +4106,18 @@
         <v>100</v>
       </c>
       <c r="P40" t="n">
-        <v>76.56999999999999</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>95.72</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -4129,17 +4129,17 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUT</t>
+          <t>MTSN 1 OKUT</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUT</t>
+          <t>MTSN 1 OKUT</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>MTSN 2 OKUT (418471)</t>
+          <t>MTSN 1 OKUT (424967)</t>
         </is>
       </c>
     </row>
@@ -4154,24 +4154,24 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>076</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>666505</t>
+          <t>656574</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>87.68000000000001</v>
+        <v>91.03</v>
       </c>
       <c r="G41" t="n">
-        <v>100</v>
+        <v>95.12</v>
       </c>
       <c r="H41" t="n">
         <v>100</v>
@@ -4180,10 +4180,10 @@
         <v>100</v>
       </c>
       <c r="J41" t="n">
-        <v>75.36</v>
+        <v>82.05</v>
       </c>
       <c r="K41" t="n">
-        <v>100</v>
+        <v>99.42</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -4192,13 +4192,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>100</v>
+        <v>90.81999999999999</v>
       </c>
       <c r="O41" t="n">
         <v>100</v>
       </c>
       <c r="P41" t="n">
-        <v>76.3</v>
+        <v>76.27</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>95.38</v>
+        <v>95.34</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -4221,17 +4221,17 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>KPU OKUS</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>KPU OKUS</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666505)</t>
+          <t>KPU OKUS (656574)</t>
         </is>
       </c>
     </row>
@@ -4251,19 +4251,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>597558</t>
+          <t>426050</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 2 OGAN KOMERING ULU SELATAN</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>88.97</v>
+        <v>88.06</v>
       </c>
       <c r="G42" t="n">
-        <v>98.08</v>
+        <v>97.84</v>
       </c>
       <c r="H42" t="n">
         <v>100</v>
@@ -4272,10 +4272,10 @@
         <v>100</v>
       </c>
       <c r="J42" t="n">
-        <v>77.93000000000001</v>
+        <v>76.12</v>
       </c>
       <c r="K42" t="n">
-        <v>100</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4284,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>96.16</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="O42" t="n">
         <v>100</v>
       </c>
       <c r="P42" t="n">
-        <v>76.31</v>
+        <v>75.92</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>95.38</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -4313,17 +4313,17 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>MAN 2 OKUS</t>
+          <t>MTSN 1 OKU</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>MAN 2 OKUS</t>
+          <t>MTSN 1 OKU</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>MAN 2 OKUS (597558)</t>
+          <t>MTSN 1 OKU (426050)</t>
         </is>
       </c>
     </row>
@@ -4338,24 +4338,24 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>056</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>666504</t>
+          <t>431142</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>95.39</v>
+        <v>85.68000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>92.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="H43" t="n">
         <v>100</v>
@@ -4364,36 +4364,36 @@
         <v>100</v>
       </c>
       <c r="J43" t="n">
-        <v>90.78</v>
+        <v>71.36</v>
       </c>
       <c r="K43" t="n">
-        <v>90.87</v>
+        <v>95.83</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>94.92</v>
+        <v>98.98</v>
       </c>
       <c r="O43" t="n">
         <v>100</v>
       </c>
       <c r="P43" t="n">
-        <v>76.28</v>
+        <v>94.77</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>95.34999999999999</v>
+        <v>94.77</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -4405,17 +4405,17 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>BPN OKU</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>BPN OKU</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666504)</t>
+          <t>BPN OKU (431142)</t>
         </is>
       </c>
     </row>
@@ -4435,19 +4435,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>424967</t>
+          <t>440502</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>90.26000000000001</v>
+        <v>89.89</v>
       </c>
       <c r="G44" t="n">
-        <v>97.84</v>
+        <v>95.45</v>
       </c>
       <c r="H44" t="n">
         <v>100</v>
@@ -4456,36 +4456,36 @@
         <v>100</v>
       </c>
       <c r="J44" t="n">
-        <v>80.52</v>
+        <v>79.78</v>
       </c>
       <c r="K44" t="n">
-        <v>91.37</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="L44" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>100</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="O44" t="n">
         <v>100</v>
       </c>
       <c r="P44" t="n">
-        <v>95.34999999999999</v>
+        <v>75.62</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>95.34999999999999</v>
+        <v>94.52</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -4497,17 +4497,17 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUT</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUT</t>
+          <t>KEMENAG OKUS</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUT (424967)</t>
+          <t>KEMENAG OKUS (440502)</t>
         </is>
       </c>
     </row>
@@ -4522,36 +4522,36 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>656574</t>
+          <t>662127</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
+          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>91.03</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>95.12</v>
+        <v>99.37</v>
       </c>
       <c r="H45" t="n">
-        <v>100</v>
+        <v>95.39</v>
       </c>
       <c r="I45" t="n">
         <v>100</v>
       </c>
       <c r="J45" t="n">
-        <v>82.05</v>
+        <v>79.52</v>
       </c>
       <c r="K45" t="n">
-        <v>99.42</v>
+        <v>98.73</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -4560,13 +4560,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>90.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="O45" t="n">
-        <v>100</v>
+        <v>95.39</v>
       </c>
       <c r="P45" t="n">
-        <v>76.27</v>
+        <v>75.52</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>95.34</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -4589,17 +4589,17 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>KPU OKUS</t>
+          <t>MAN 1 OKUS</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>KPU OKUS</t>
+          <t>MAN 1 OKUS</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>KPU OKUS (656574)</t>
+          <t>MAN 1 OKUS (662127)</t>
         </is>
       </c>
     </row>
@@ -4614,24 +4614,24 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>426050</t>
+          <t>692725</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU</t>
+          <t>RUPBASAN KELAS II BATURAJA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>88.06</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>97.84</v>
+        <v>96.91</v>
       </c>
       <c r="H46" t="n">
         <v>100</v>
@@ -4640,36 +4640,36 @@
         <v>100</v>
       </c>
       <c r="J46" t="n">
-        <v>76.12</v>
+        <v>74.86</v>
       </c>
       <c r="K46" t="n">
-        <v>99.34999999999999</v>
+        <v>93.89</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" t="n">
-        <v>96.31999999999999</v>
+        <v>93.75</v>
       </c>
       <c r="O46" t="n">
         <v>100</v>
       </c>
       <c r="P46" t="n">
-        <v>75.92</v>
+        <v>94.38</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>94.90000000000001</v>
+        <v>94.38</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -4681,17 +4681,17 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU</t>
+          <t>RUPBASAN BATURAJA</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU</t>
+          <t>RUPBASAN BATURAJA</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>MTSN 1 OKU (426050)</t>
+          <t>RUPBASAN BATURAJA (692725)</t>
         </is>
       </c>
     </row>
@@ -4711,19 +4711,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>431142</t>
+          <t>670561</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU</t>
+          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>85.68000000000001</v>
+        <v>86.45</v>
       </c>
       <c r="G47" t="n">
-        <v>98.7</v>
+        <v>97.61</v>
       </c>
       <c r="H47" t="n">
         <v>100</v>
@@ -4732,10 +4732,10 @@
         <v>100</v>
       </c>
       <c r="J47" t="n">
-        <v>71.36</v>
+        <v>72.89</v>
       </c>
       <c r="K47" t="n">
-        <v>95.83</v>
+        <v>92.58</v>
       </c>
       <c r="L47" t="n">
         <v>100</v>
@@ -4744,13 +4744,13 @@
         <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>98.98</v>
+        <v>97.86</v>
       </c>
       <c r="O47" t="n">
         <v>100</v>
       </c>
       <c r="P47" t="n">
-        <v>94.77</v>
+        <v>94.23999999999999</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>94.77</v>
+        <v>94.23999999999999</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4773,17 +4773,17 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>BPN OKU</t>
+          <t>BPN OKUS</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>BPN OKU</t>
+          <t>BPN OKUS</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>BPN OKU (431142)</t>
+          <t>BPN OKUS (670561)</t>
         </is>
       </c>
     </row>
@@ -4798,36 +4798,36 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>066</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>440502</t>
+          <t>111079</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>89.89</v>
+        <v>85.17</v>
       </c>
       <c r="G48" t="n">
-        <v>95.45</v>
+        <v>99.36</v>
       </c>
       <c r="H48" t="n">
-        <v>100</v>
+        <v>99.67</v>
       </c>
       <c r="I48" t="n">
         <v>100</v>
       </c>
       <c r="J48" t="n">
-        <v>79.78</v>
+        <v>70.34</v>
       </c>
       <c r="K48" t="n">
-        <v>95.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4836,13 +4836,13 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>95.29000000000001</v>
+        <v>98.73</v>
       </c>
       <c r="O48" t="n">
-        <v>100</v>
+        <v>99.67</v>
       </c>
       <c r="P48" t="n">
-        <v>75.62</v>
+        <v>75.34</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>94.52</v>
+        <v>94.18000000000001</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -4865,17 +4865,17 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>BNN OKUT</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS</t>
+          <t>BNN OKUT</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>KEMENAG OKUS (440502)</t>
+          <t>BNN OKUT (111079)</t>
         </is>
       </c>
     </row>
@@ -4890,24 +4890,24 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>024</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>690801</t>
+          <t>426066</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>LOKA LABORATORIUM KESEHATAN MASYARAKAT BATURAJA</t>
+          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>89.65000000000001</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>96.5</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="H49" t="n">
         <v>100</v>
@@ -4916,25 +4916,25 @@
         <v>100</v>
       </c>
       <c r="J49" t="n">
-        <v>79.3</v>
+        <v>74.7</v>
       </c>
       <c r="K49" t="n">
-        <v>89.34999999999999</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="L49" t="n">
-        <v>100</v>
+        <v>95.55</v>
       </c>
       <c r="M49" t="n">
         <v>100</v>
       </c>
       <c r="N49" t="n">
-        <v>96.64</v>
+        <v>99.8</v>
       </c>
       <c r="O49" t="n">
         <v>100</v>
       </c>
       <c r="P49" t="n">
-        <v>94.43000000000001</v>
+        <v>94.08</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>94.43000000000001</v>
+        <v>94.08</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4957,17 +4957,17 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>LOKA LABKESMAS</t>
+          <t>MAN 1 OKUT</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>LOKA LABKESMAS</t>
+          <t>MAN 1 OKUT</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>LOKA LABKESMAS (690801)</t>
+          <t>MAN 1 OKUT (426066)</t>
         </is>
       </c>
     </row>
@@ -4982,24 +4982,24 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>692725</t>
+          <t>666503</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>RUPBASAN KELAS II BATURAJA</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>87.43000000000001</v>
+        <v>86.31</v>
       </c>
       <c r="G50" t="n">
-        <v>96.91</v>
+        <v>98.33</v>
       </c>
       <c r="H50" t="n">
         <v>100</v>
@@ -5008,36 +5008,36 @@
         <v>100</v>
       </c>
       <c r="J50" t="n">
-        <v>74.86</v>
+        <v>72.61</v>
       </c>
       <c r="K50" t="n">
-        <v>93.89</v>
+        <v>96.65000000000001</v>
       </c>
       <c r="L50" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>93.75</v>
+        <v>100</v>
       </c>
       <c r="O50" t="n">
         <v>100</v>
       </c>
       <c r="P50" t="n">
-        <v>94.38</v>
+        <v>75.22</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R50" t="n">
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>94.38</v>
+        <v>94.03</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -5049,17 +5049,17 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>RUPBASAN BATURAJA</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>RUPBASAN BATURAJA</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>RUPBASAN BATURAJA (692725)</t>
+          <t>KEMENAG OKUT (666503)</t>
         </is>
       </c>
     </row>
@@ -5074,62 +5074,62 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>066</t>
+          <t>024</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>111079</t>
+          <t>690801</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>LOKA LABORATORIUM KESEHATAN MASYARAKAT BATURAJA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>85.17</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>99.36</v>
+        <v>96.5</v>
       </c>
       <c r="H51" t="n">
-        <v>100</v>
+        <v>98.25</v>
       </c>
       <c r="I51" t="n">
         <v>100</v>
       </c>
       <c r="J51" t="n">
-        <v>70.34</v>
+        <v>79.3</v>
       </c>
       <c r="K51" t="n">
-        <v>100</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N51" t="n">
-        <v>98.73</v>
+        <v>96.64</v>
       </c>
       <c r="O51" t="n">
-        <v>100</v>
+        <v>98.25</v>
       </c>
       <c r="P51" t="n">
-        <v>75.42</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>94.28</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -5141,17 +5141,17 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>BNN OKUT</t>
+          <t>LOKA LABKESMAS</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>BNN OKUT</t>
+          <t>LOKA LABKESMAS</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>BNN OKUT (111079)</t>
+          <t>LOKA LABKESMAS (690801)</t>
         </is>
       </c>
     </row>
@@ -5166,36 +5166,36 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>056</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>670561</t>
+          <t>692340</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>LAPAS KELAS II B MARTAPURA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>86.45</v>
+        <v>78</v>
       </c>
       <c r="G52" t="n">
-        <v>97.61</v>
+        <v>99.47</v>
       </c>
       <c r="H52" t="n">
         <v>100</v>
       </c>
       <c r="I52" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J52" t="n">
-        <v>72.89</v>
+        <v>75.98999999999999</v>
       </c>
       <c r="K52" t="n">
-        <v>92.58</v>
+        <v>97.86</v>
       </c>
       <c r="L52" t="n">
         <v>100</v>
@@ -5204,13 +5204,13 @@
         <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>97.86</v>
+        <v>100</v>
       </c>
       <c r="O52" t="n">
         <v>100</v>
       </c>
       <c r="P52" t="n">
-        <v>94.23999999999999</v>
+        <v>93.97</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>94.23999999999999</v>
+        <v>93.97</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -5233,17 +5233,17 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>BPN OKUS</t>
+          <t>LAPAS MARTAPURA</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>BPN OKUS</t>
+          <t>LAPAS MARTAPURA</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>BPN OKUS (670561)</t>
+          <t>LAPAS MARTAPURA (692340)</t>
         </is>
       </c>
     </row>
@@ -5263,19 +5263,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>426066</t>
+          <t>553792</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>87.34999999999999</v>
+        <v>89.63</v>
       </c>
       <c r="G53" t="n">
-        <v>96.76000000000001</v>
+        <v>95.22</v>
       </c>
       <c r="H53" t="n">
         <v>100</v>
@@ -5284,36 +5284,36 @@
         <v>100</v>
       </c>
       <c r="J53" t="n">
-        <v>74.7</v>
+        <v>79.25</v>
       </c>
       <c r="K53" t="n">
-        <v>91.68000000000001</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="L53" t="n">
-        <v>95.55</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="O53" t="n">
         <v>100</v>
       </c>
       <c r="P53" t="n">
-        <v>94.08</v>
+        <v>74.97</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R53" t="n">
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>94.08</v>
+        <v>93.72</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -5325,17 +5325,17 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>MAN 1 OKUT</t>
+          <t>MTSN 1 OKUS</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>MAN 1 OKUT</t>
+          <t>MTSN 1 OKUS</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>MAN 1 OKUT (426066)</t>
+          <t>MTSN 1 OKUS (553792)</t>
         </is>
       </c>
     </row>
@@ -5355,7 +5355,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>666503</t>
+          <t>666501</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -5364,10 +5364,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>86.31</v>
+        <v>89.16</v>
       </c>
       <c r="G54" t="n">
-        <v>98.33</v>
+        <v>91.42</v>
       </c>
       <c r="H54" t="n">
         <v>100</v>
@@ -5376,10 +5376,10 @@
         <v>100</v>
       </c>
       <c r="J54" t="n">
-        <v>72.61</v>
+        <v>78.31</v>
       </c>
       <c r="K54" t="n">
-        <v>96.65000000000001</v>
+        <v>97.03</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -5388,13 +5388,13 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>100</v>
+        <v>85.8</v>
       </c>
       <c r="O54" t="n">
         <v>100</v>
       </c>
       <c r="P54" t="n">
-        <v>75.22</v>
+        <v>74.73</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>94.03</v>
+        <v>93.42</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666503)</t>
+          <t>KEMENAG OKUT (666501)</t>
         </is>
       </c>
     </row>
@@ -5442,42 +5442,42 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>692340</t>
+          <t>418459</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>LAPAS KELAS II B MARTAPURA</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>78</v>
+        <v>82.19</v>
       </c>
       <c r="G55" t="n">
-        <v>99.47</v>
+        <v>100</v>
       </c>
       <c r="H55" t="n">
         <v>100</v>
       </c>
       <c r="I55" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J55" t="n">
-        <v>75.98999999999999</v>
+        <v>64.38</v>
       </c>
       <c r="K55" t="n">
-        <v>97.86</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>100</v>
@@ -5486,18 +5486,18 @@
         <v>100</v>
       </c>
       <c r="P55" t="n">
-        <v>93.97</v>
+        <v>74.66</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R55" t="n">
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>93.97</v>
+        <v>93.31999999999999</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -5509,17 +5509,17 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>LAPAS MARTAPURA (692340)</t>
+          <t>KEMENAG OKU (418459)</t>
         </is>
       </c>
     </row>
@@ -5534,24 +5534,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>553792</t>
+          <t>686503</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
+          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>89.63</v>
+        <v>85.56999999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>95.22</v>
+        <v>96.14</v>
       </c>
       <c r="H56" t="n">
         <v>100</v>
@@ -5560,10 +5560,10 @@
         <v>100</v>
       </c>
       <c r="J56" t="n">
-        <v>79.25</v>
+        <v>71.13</v>
       </c>
       <c r="K56" t="n">
-        <v>90.43000000000001</v>
+        <v>96.95</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5572,13 +5572,13 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>100</v>
+        <v>95.33</v>
       </c>
       <c r="O56" t="n">
         <v>100</v>
       </c>
       <c r="P56" t="n">
-        <v>74.97</v>
+        <v>74.59</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>93.72</v>
+        <v>93.23999999999999</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -5601,17 +5601,17 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUS</t>
+          <t>BAWASLU OKUS</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUS</t>
+          <t>BAWASLU OKUS</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>MTSN 1 OKUS (553792)</t>
+          <t>BAWASLU OKUS (686503)</t>
         </is>
       </c>
     </row>
@@ -5626,24 +5626,24 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>666501</t>
+          <t>419006</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>89.16</v>
+        <v>82.68000000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>91.42</v>
+        <v>96.29000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>100</v>
@@ -5652,36 +5652,36 @@
         <v>100</v>
       </c>
       <c r="J57" t="n">
-        <v>78.31</v>
+        <v>65.36</v>
       </c>
       <c r="K57" t="n">
-        <v>97.03</v>
+        <v>96.34</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" t="n">
-        <v>85.8</v>
+        <v>88.81</v>
       </c>
       <c r="O57" t="n">
         <v>100</v>
       </c>
       <c r="P57" t="n">
-        <v>74.73</v>
+        <v>92.95</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R57" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>93.42</v>
+        <v>92.95</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -5693,17 +5693,17 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>BAWASLU OKU</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>BAWASLU OKU</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666501)</t>
+          <t>BAWASLU OKU (419006)</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>418459</t>
+          <t>418458</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -5732,10 +5732,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>82.19</v>
+        <v>88.58</v>
       </c>
       <c r="G58" t="n">
-        <v>100</v>
+        <v>93.42</v>
       </c>
       <c r="H58" t="n">
         <v>100</v>
@@ -5744,10 +5744,10 @@
         <v>100</v>
       </c>
       <c r="J58" t="n">
-        <v>64.38</v>
+        <v>77.16</v>
       </c>
       <c r="K58" t="n">
-        <v>100</v>
+        <v>90.98</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -5756,13 +5756,13 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>100</v>
+        <v>95.86</v>
       </c>
       <c r="O58" t="n">
         <v>100</v>
       </c>
       <c r="P58" t="n">
-        <v>74.66</v>
+        <v>74.36</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>93.31999999999999</v>
+        <v>92.95</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418459)</t>
+          <t>KEMENAG OKU (418458)</t>
         </is>
       </c>
     </row>
@@ -5810,62 +5810,62 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>686503</t>
+          <t>403410</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU SELATAN</t>
+          <t>PENGADILAN AGAMA MUARADUA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>85.56999999999999</v>
+        <v>96.06</v>
       </c>
       <c r="G59" t="n">
-        <v>96.14</v>
+        <v>98.66</v>
       </c>
       <c r="H59" t="n">
-        <v>100</v>
+        <v>76.67</v>
       </c>
       <c r="I59" t="n">
         <v>100</v>
       </c>
       <c r="J59" t="n">
-        <v>71.13</v>
+        <v>92.12</v>
       </c>
       <c r="K59" t="n">
-        <v>96.95</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>95.33</v>
+        <v>96.5</v>
       </c>
       <c r="O59" t="n">
-        <v>100</v>
+        <v>76.67</v>
       </c>
       <c r="P59" t="n">
-        <v>74.59</v>
+        <v>92.27</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R59" t="n">
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>93.23999999999999</v>
+        <v>92.27</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -5877,17 +5877,17 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>BAWASLU OKUS</t>
+          <t>PA  MUARADUA</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>BAWASLU OKUS</t>
+          <t>PA  MUARADUA</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>BAWASLU OKUS (686503)</t>
+          <t>PA  MUARADUA (403410)</t>
         </is>
       </c>
     </row>
@@ -5902,51 +5902,51 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>012</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>419006</t>
+          <t>344894</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SEKRETARIAT BAWASLU KABUPATEN OGAN KOMERING ULU</t>
+          <t>RUMKIT TK. III 02.06.02 DR. NOESMIR BATURAJA KESDAM II/SWJ</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>82.68000000000001</v>
+        <v>82.64</v>
       </c>
       <c r="G60" t="n">
-        <v>96.29000000000001</v>
+        <v>94.52</v>
       </c>
       <c r="H60" t="n">
-        <v>100</v>
+        <v>94.95</v>
       </c>
       <c r="I60" t="n">
         <v>100</v>
       </c>
       <c r="J60" t="n">
-        <v>65.36</v>
+        <v>65.27</v>
       </c>
       <c r="K60" t="n">
-        <v>96.34</v>
+        <v>95.8</v>
       </c>
       <c r="L60" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="M60" t="n">
         <v>100</v>
       </c>
       <c r="N60" t="n">
-        <v>88.81</v>
+        <v>98.28</v>
       </c>
       <c r="O60" t="n">
-        <v>100</v>
+        <v>94.95</v>
       </c>
       <c r="P60" t="n">
-        <v>92.95</v>
+        <v>90.92</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>92.95</v>
+        <v>90.92</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -5969,17 +5969,17 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>BAWASLU OKU</t>
+          <t>RUMKIT NOESMIR</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>BAWASLU OKU</t>
+          <t>RUMKIT NOESMIR</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>BAWASLU OKU (419006)</t>
+          <t>RUMKIT NOESMIR (344894)</t>
         </is>
       </c>
     </row>
@@ -5999,19 +5999,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>418458</t>
+          <t>666502</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>88.58</v>
+        <v>85.38</v>
       </c>
       <c r="G61" t="n">
-        <v>93.42</v>
+        <v>91.5</v>
       </c>
       <c r="H61" t="n">
         <v>100</v>
@@ -6020,10 +6020,10 @@
         <v>100</v>
       </c>
       <c r="J61" t="n">
-        <v>77.16</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>90.98</v>
+        <v>83.84999999999999</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -6032,13 +6032,13 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>95.86</v>
+        <v>99.15000000000001</v>
       </c>
       <c r="O61" t="n">
         <v>100</v>
       </c>
       <c r="P61" t="n">
-        <v>74.36</v>
+        <v>72.3</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>92.95</v>
+        <v>90.37</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -6061,17 +6061,17 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418458)</t>
+          <t>KEMENAG OKUT (666502)</t>
         </is>
       </c>
     </row>
@@ -6086,62 +6086,62 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>012</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>344894</t>
+          <t>666507</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>RUMKIT TK. III 02.06.02 DR. NOESMIR BATURAJA KESDAM II/SWJ</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>82.64</v>
+        <v>89.19</v>
       </c>
       <c r="G62" t="n">
-        <v>94.52</v>
+        <v>84.7</v>
       </c>
       <c r="H62" t="n">
-        <v>94.95</v>
+        <v>100</v>
       </c>
       <c r="I62" t="n">
         <v>100</v>
       </c>
       <c r="J62" t="n">
-        <v>65.27</v>
+        <v>78.37</v>
       </c>
       <c r="K62" t="n">
-        <v>95.8</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="L62" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>98.28</v>
+        <v>83.44</v>
       </c>
       <c r="O62" t="n">
-        <v>94.95</v>
+        <v>100</v>
       </c>
       <c r="P62" t="n">
-        <v>90.92</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R62" t="n">
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>90.92</v>
+        <v>90.36</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -6153,17 +6153,17 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>RUMKIT NOESMIR</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>RUMKIT NOESMIR</t>
+          <t>KEMENAG OKUT</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>RUMKIT NOESMIR (344894)</t>
+          <t>KEMENAG OKUT (666507)</t>
         </is>
       </c>
     </row>
@@ -6183,19 +6183,19 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>666502</t>
+          <t>574370</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>85.38</v>
+        <v>82.5</v>
       </c>
       <c r="G63" t="n">
-        <v>91.5</v>
+        <v>90.67</v>
       </c>
       <c r="H63" t="n">
         <v>100</v>
@@ -6204,10 +6204,10 @@
         <v>100</v>
       </c>
       <c r="J63" t="n">
-        <v>70.76000000000001</v>
+        <v>65</v>
       </c>
       <c r="K63" t="n">
-        <v>83.84999999999999</v>
+        <v>91.34</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -6216,13 +6216,13 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>99.15000000000001</v>
+        <v>90</v>
       </c>
       <c r="O63" t="n">
         <v>100</v>
       </c>
       <c r="P63" t="n">
-        <v>72.3</v>
+        <v>72.02</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>90.37</v>
+        <v>90.02</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -6245,17 +6245,17 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 3 OKUS</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>MTSN 3 OKUS</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666502)</t>
+          <t>MTSN 3 OKUS (574370)</t>
         </is>
       </c>
     </row>
@@ -6270,62 +6270,62 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>006</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>666507</t>
+          <t>007208</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>89.19</v>
+        <v>89.13</v>
       </c>
       <c r="G64" t="n">
-        <v>84.7</v>
+        <v>99.77</v>
       </c>
       <c r="H64" t="n">
-        <v>100</v>
+        <v>71.77</v>
       </c>
       <c r="I64" t="n">
         <v>100</v>
       </c>
       <c r="J64" t="n">
-        <v>78.37</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>85.95999999999999</v>
+        <v>99.06999999999999</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N64" t="n">
-        <v>83.44</v>
+        <v>100</v>
       </c>
       <c r="O64" t="n">
-        <v>100</v>
+        <v>71.77</v>
       </c>
       <c r="P64" t="n">
-        <v>72.29000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R64" t="n">
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>90.36</v>
+        <v>89.5</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -6337,17 +6337,17 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>KEJARI OKUS</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT</t>
+          <t>KEJARI OKUS</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>KEMENAG OKUT (666507)</t>
+          <t>KEJARI OKUS (007208)</t>
         </is>
       </c>
     </row>
@@ -6367,31 +6367,31 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>574370</t>
+          <t>418457</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>82.5</v>
+        <v>86.64</v>
       </c>
       <c r="G65" t="n">
-        <v>90.67</v>
+        <v>85.39</v>
       </c>
       <c r="H65" t="n">
-        <v>100</v>
+        <v>97.93000000000001</v>
       </c>
       <c r="I65" t="n">
         <v>100</v>
       </c>
       <c r="J65" t="n">
-        <v>65</v>
+        <v>73.28</v>
       </c>
       <c r="K65" t="n">
-        <v>91.34</v>
+        <v>83.13</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -6400,13 +6400,13 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>90</v>
+        <v>87.64</v>
       </c>
       <c r="O65" t="n">
-        <v>100</v>
+        <v>97.93000000000001</v>
       </c>
       <c r="P65" t="n">
-        <v>72.02</v>
+        <v>70.86</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>90.02</v>
+        <v>88.58</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -6429,17 +6429,17 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUS</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUS</t>
+          <t>KEMENAG OKU</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>MTSN 3 OKUS (574370)</t>
+          <t>KEMENAG OKU (418457)</t>
         </is>
       </c>
     </row>
@@ -6454,36 +6454,36 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>418457</t>
+          <t>099228</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU</t>
+          <t>PENGADILAN NEGERI BATURAJA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>86.64</v>
+        <v>87.37</v>
       </c>
       <c r="G66" t="n">
-        <v>85.39</v>
+        <v>92.01000000000001</v>
       </c>
       <c r="H66" t="n">
-        <v>100</v>
+        <v>85.42</v>
       </c>
       <c r="I66" t="n">
         <v>100</v>
       </c>
       <c r="J66" t="n">
-        <v>73.28</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>83.13</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -6492,13 +6492,13 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>87.64</v>
+        <v>96.53</v>
       </c>
       <c r="O66" t="n">
-        <v>100</v>
+        <v>85.42</v>
       </c>
       <c r="P66" t="n">
-        <v>71.38</v>
+        <v>69.72</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>89.23</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -6521,17 +6521,17 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>KEMENAG OKU</t>
+          <t>PN BATURAJA</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>KEMENAG OKU (418457)</t>
+          <t>PN BATURAJA (099228)</t>
         </is>
       </c>
     </row>
@@ -6546,62 +6546,62 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>099228</t>
+          <t>424245</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PENGADILAN NEGERI BATURAJA</t>
+          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>87.37</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>92.01000000000001</v>
+        <v>99.94</v>
       </c>
       <c r="H67" t="n">
-        <v>85.42</v>
+        <v>65</v>
       </c>
       <c r="I67" t="n">
         <v>100</v>
       </c>
       <c r="J67" t="n">
-        <v>74.73999999999999</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>87.48999999999999</v>
+        <v>100</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>96.53</v>
+        <v>99.75</v>
       </c>
       <c r="O67" t="n">
-        <v>85.42</v>
+        <v>65</v>
       </c>
       <c r="P67" t="n">
-        <v>69.72</v>
+        <v>87.03</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R67" t="n">
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>87.15000000000001</v>
+        <v>87.03</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -6613,17 +6613,17 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>MAN 1 OKU</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>PN BATURAJA</t>
+          <t>MAN 1 OKU</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>PN BATURAJA (099228)</t>
+          <t>MAN 1 OKU (424245)</t>
         </is>
       </c>
     </row>
